--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/54/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/54/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1461461461461462</v>
+        <v>0.0119011901190119</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308.3083083083083</v>
+        <v>833.4733473347335</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04184184184184184</v>
+        <v>0.05808580858085809</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3253253253253253</v>
+        <v>0.9494949494949495</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.1101101101101</v>
+        <v>863.1163116311632</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.2572572572573</v>
+        <v>758.6858685868586</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.6146146146147</v>
+        <v>892.097209720972</v>
       </c>
     </row>
   </sheetData>
